--- a/doc/Instruction format and basic description.xlsx
+++ b/doc/Instruction format and basic description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\cad_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750D13B-7CB8-471A-8A0A-E7DE4B04FBA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A76E0-7AD7-41AF-9FA9-9B9AF7A4C261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{A5C7AEC9-24CC-49B6-AA02-00624A2F30DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>MOV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jump to imm8 if R[rs] == 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R[rs]&lt;-Sign Extend(imm8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,18 @@
   </si>
   <si>
     <t>Instruction that differs from MIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump to PC+imm8 if R[rs] == 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump to &amp;imm8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E3367A-657C-4A72-ACCF-07D3AF22C3C1}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -556,7 +564,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -587,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,7 +625,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,6 +702,14 @@
       </c>
       <c r="B14" t="s">
         <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
